--- a/peformance/DungNT-knowlegde.xlsx
+++ b/peformance/DungNT-knowlegde.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UnixCommand" sheetId="1" r:id="rId1"/>
     <sheet name="NotePad++" sheetId="2" r:id="rId2"/>
-    <sheet name="Linx" sheetId="3" r:id="rId3"/>
-    <sheet name="Window" sheetId="4" r:id="rId4"/>
+    <sheet name="Window" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Linx" sheetId="3" r:id="rId4"/>
     <sheet name="Coc-config" sheetId="5" r:id="rId5"/>
     <sheet name="TRS-BO" sheetId="6" r:id="rId6"/>
     <sheet name="NWL" sheetId="7" r:id="rId7"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="498">
   <si>
     <t>Step to investigate what thread is slow or taking too much resource :</t>
   </si>
@@ -3530,6 +3530,18 @@
   </si>
   <si>
     <t>find $1 -name "* *.epub" -type f -print0 |   while read -d $'\0' f; do mv -v "$f" "${f// /_}"; done</t>
+  </si>
+  <si>
+    <t>$("span[class='material btn btn-sm btn-blue ng-scope']").each(function(){$(this).click()});</t>
+  </si>
+  <si>
+    <t>javascript fun ubrand</t>
+  </si>
+  <si>
+    <t>scp -rp sourcedirectory user@dest:/path</t>
+  </si>
+  <si>
+    <t>copy all folder</t>
   </si>
 </sst>
 </file>
@@ -4544,6 +4556,12 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4751,12 +4769,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5110,7 +5122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -6479,10 +6491,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D333"/>
+  <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D341"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -7579,7 +7669,7 @@
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" s="157" t="s">
+      <c r="A326" s="78" t="s">
         <v>488</v>
       </c>
     </row>
@@ -7592,7 +7682,7 @@
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="156" t="s">
+      <c r="A329" s="77" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7602,12 +7692,32 @@
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="156" t="s">
+      <c r="A332" s="77" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="50"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="10" t="s">
+        <v>496</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7617,84 +7727,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8229,338 +8261,338 @@
   <sheetData>
     <row r="1" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="102" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="102" t="s">
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="108"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="110"/>
     </row>
     <row r="3" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="87" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="109" t="s">
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="110"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="112"/>
     </row>
     <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="87" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="111" t="s">
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="113"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="115"/>
     </row>
     <row r="5" spans="2:35" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="87" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="93" t="s">
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="95"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="97"/>
     </row>
     <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="87" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="93" t="s">
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="95"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="97"/>
     </row>
     <row r="7" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="87" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="93" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="95"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="97"/>
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="87" t="s">
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="115" t="s">
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
+      <c r="AE8" s="118"/>
+      <c r="AF8" s="118"/>
+      <c r="AG8" s="118"/>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="119"/>
     </row>
     <row r="9" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="87" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="114"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="116"/>
     </row>
     <row r="10" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
@@ -8599,525 +8631,525 @@
       <c r="AI10" s="12"/>
     </row>
     <row r="11" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="83"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="85"/>
     </row>
     <row r="12" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="87" t="s">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="91"/>
-      <c r="AA12" s="91"/>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="87" t="s">
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="110"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="112"/>
     </row>
     <row r="13" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="133"/>
-      <c r="AD13" s="123" t="s">
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="125"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="127"/>
     </row>
     <row r="17" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="105" t="s">
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="108"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="105"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="107"/>
-      <c r="AM18" s="105"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="118"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
+      <c r="AJ18" s="107"/>
+      <c r="AK18" s="108"/>
+      <c r="AL18" s="109"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="108"/>
+      <c r="AO18" s="120"/>
     </row>
     <row r="19" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="115" t="s">
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="AE19" s="116"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="119"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="90"/>
-      <c r="AN19" s="91"/>
-      <c r="AO19" s="114"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="93"/>
+      <c r="AO19" s="116"/>
     </row>
     <row r="20" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="127"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="91"/>
-      <c r="AB20" s="91"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="91"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="90"/>
-      <c r="AN20" s="91"/>
-      <c r="AO20" s="114"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="116"/>
     </row>
     <row r="21" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="127"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="91"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="90"/>
-      <c r="AK21" s="91"/>
-      <c r="AL21" s="92"/>
-      <c r="AM21" s="90"/>
-      <c r="AN21" s="91"/>
-      <c r="AO21" s="114"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="93"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="92"/>
+      <c r="AN21" s="93"/>
+      <c r="AO21" s="116"/>
     </row>
     <row r="22" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="80"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="81"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="80"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="83"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="83"/>
+      <c r="AL22" s="84"/>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="83"/>
+      <c r="AO22" s="85"/>
     </row>
     <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="135" t="s">
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="U23" s="136"/>
-      <c r="V23" s="136"/>
-      <c r="W23" s="136"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="87" t="s">
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="138"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="146"/>
-      <c r="AJ23" s="90"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="90"/>
-      <c r="AN23" s="91"/>
-      <c r="AO23" s="114"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="146"/>
+      <c r="AE23" s="147"/>
+      <c r="AF23" s="147"/>
+      <c r="AG23" s="147"/>
+      <c r="AH23" s="147"/>
+      <c r="AI23" s="148"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="93"/>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="92"/>
+      <c r="AN23" s="93"/>
+      <c r="AO23" s="116"/>
     </row>
     <row r="24" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="140"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="142"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="148"/>
-      <c r="AF24" s="148"/>
-      <c r="AG24" s="148"/>
-      <c r="AH24" s="148"/>
-      <c r="AI24" s="149"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="91"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="90"/>
-      <c r="AN24" s="91"/>
-      <c r="AO24" s="114"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="150"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="150"/>
+      <c r="AH24" s="150"/>
+      <c r="AI24" s="151"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="92"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="116"/>
     </row>
     <row r="25" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="139"/>
-      <c r="W25" s="139"/>
-      <c r="X25" s="140"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="91"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="147"/>
-      <c r="AE25" s="148"/>
-      <c r="AF25" s="148"/>
-      <c r="AG25" s="148"/>
-      <c r="AH25" s="148"/>
-      <c r="AI25" s="149"/>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="91"/>
-      <c r="AL25" s="92"/>
-      <c r="AM25" s="90"/>
-      <c r="AN25" s="91"/>
-      <c r="AO25" s="114"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="150"/>
+      <c r="AF25" s="150"/>
+      <c r="AG25" s="150"/>
+      <c r="AH25" s="150"/>
+      <c r="AI25" s="151"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="93"/>
+      <c r="AL25" s="94"/>
+      <c r="AM25" s="92"/>
+      <c r="AN25" s="93"/>
+      <c r="AO25" s="116"/>
     </row>
     <row r="26" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="142"/>
-      <c r="V26" s="142"/>
-      <c r="W26" s="142"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="133"/>
-      <c r="AD26" s="150"/>
-      <c r="AE26" s="151"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="152"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="132"/>
-      <c r="AL26" s="133"/>
-      <c r="AM26" s="131"/>
-      <c r="AN26" s="132"/>
-      <c r="AO26" s="134"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="153"/>
+      <c r="AF26" s="153"/>
+      <c r="AG26" s="153"/>
+      <c r="AH26" s="153"/>
+      <c r="AI26" s="154"/>
+      <c r="AJ26" s="133"/>
+      <c r="AK26" s="134"/>
+      <c r="AL26" s="135"/>
+      <c r="AM26" s="133"/>
+      <c r="AN26" s="134"/>
+      <c r="AO26" s="136"/>
     </row>
     <row r="39" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P39" t="s">

--- a/peformance/DungNT-knowlegde.xlsx
+++ b/peformance/DungNT-knowlegde.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="500">
   <si>
     <t>Step to investigate what thread is slow or taking too much resource :</t>
   </si>
@@ -3542,6 +3542,12 @@
   </si>
   <si>
     <t>copy all folder</t>
+  </si>
+  <si>
+    <t>Use find with the -exec option to call rename on every file and subdirectory containing "owner" in its name:</t>
+  </si>
+  <si>
+    <t>find path/to/my/directory/ -depth -name "*owner*" -exec /usr/bin/rename 'stringneedreplace' 'stringreplace' {} \+</t>
   </si>
 </sst>
 </file>
@@ -4580,29 +4586,164 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4613,9 +4754,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4628,147 +4769,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6569,10 +6575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="A334" sqref="A334"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A345" sqref="A345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -7717,6 +7723,16 @@
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="77" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -8261,338 +8277,338 @@
   <sheetData>
     <row r="1" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="150" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="104" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="153" t="s">
         <v>179</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="104" t="s">
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="110"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="156"/>
     </row>
     <row r="3" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="89" t="s">
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="111" t="s">
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="112"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="129"/>
     </row>
     <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="89" t="s">
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="113" t="s">
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="143" t="s">
         <v>206</v>
       </c>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="115"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="145"/>
     </row>
     <row r="5" spans="2:35" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="89" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="95" t="s">
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="146" t="s">
         <v>208</v>
       </c>
-      <c r="AE5" s="96"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="96"/>
-      <c r="AH5" s="96"/>
-      <c r="AI5" s="97"/>
+      <c r="AE5" s="147"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="148"/>
     </row>
     <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="89" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="95" t="s">
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="110"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="146" t="s">
         <v>209</v>
       </c>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="97"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="148"/>
     </row>
     <row r="7" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="89" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="95" t="s">
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="146" t="s">
         <v>210</v>
       </c>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="97"/>
+      <c r="AE7" s="147"/>
+      <c r="AF7" s="147"/>
+      <c r="AG7" s="147"/>
+      <c r="AH7" s="147"/>
+      <c r="AI7" s="148"/>
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="89" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="117" t="s">
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="133" t="s">
         <v>212</v>
       </c>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="118"/>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="119"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="149"/>
     </row>
     <row r="9" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89" t="s">
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="116"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="119"/>
     </row>
     <row r="10" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
@@ -8666,266 +8682,266 @@
       <c r="AF11" s="83"/>
       <c r="AG11" s="83"/>
       <c r="AH11" s="83"/>
-      <c r="AI11" s="85"/>
+      <c r="AI11" s="120"/>
     </row>
     <row r="12" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="89" t="s">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="89" t="s">
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="110"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="112"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="129"/>
     </row>
     <row r="13" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="125" t="s">
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="AE13" s="126"/>
-      <c r="AF13" s="126"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="126"/>
-      <c r="AI13" s="127"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="123"/>
     </row>
     <row r="17" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="108"/>
-      <c r="AC18" s="109"/>
-      <c r="AD18" s="107" t="s">
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="130"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="108"/>
-      <c r="AL18" s="109"/>
-      <c r="AM18" s="107"/>
-      <c r="AN18" s="108"/>
-      <c r="AO18" s="120"/>
+      <c r="AE18" s="131"/>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="131"/>
+      <c r="AH18" s="131"/>
+      <c r="AI18" s="139"/>
+      <c r="AJ18" s="130"/>
+      <c r="AK18" s="131"/>
+      <c r="AL18" s="139"/>
+      <c r="AM18" s="130"/>
+      <c r="AN18" s="131"/>
+      <c r="AO18" s="132"/>
     </row>
     <row r="19" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="117" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="109"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="133" t="s">
         <v>222</v>
       </c>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="118"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="94"/>
-      <c r="AM19" s="92"/>
-      <c r="AN19" s="93"/>
-      <c r="AO19" s="116"/>
+      <c r="AE19" s="134"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="135"/>
+      <c r="AJ19" s="109"/>
+      <c r="AK19" s="110"/>
+      <c r="AL19" s="111"/>
+      <c r="AM19" s="109"/>
+      <c r="AN19" s="110"/>
+      <c r="AO19" s="119"/>
     </row>
     <row r="20" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="129"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="116"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="111"/>
+      <c r="AJ20" s="109"/>
+      <c r="AK20" s="110"/>
+      <c r="AL20" s="111"/>
+      <c r="AM20" s="109"/>
+      <c r="AN20" s="110"/>
+      <c r="AO20" s="119"/>
     </row>
     <row r="21" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="129"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="93"/>
-      <c r="AL21" s="94"/>
-      <c r="AM21" s="92"/>
-      <c r="AN21" s="93"/>
-      <c r="AO21" s="116"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="111"/>
+      <c r="AJ21" s="109"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="111"/>
+      <c r="AM21" s="109"/>
+      <c r="AN21" s="110"/>
+      <c r="AO21" s="119"/>
     </row>
     <row r="22" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="79" t="s">
@@ -8969,187 +8985,187 @@
       <c r="AL22" s="84"/>
       <c r="AM22" s="82"/>
       <c r="AN22" s="83"/>
-      <c r="AO22" s="85"/>
+      <c r="AO22" s="120"/>
     </row>
     <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="137" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="89" t="s">
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="91"/>
-      <c r="AD23" s="146"/>
-      <c r="AE23" s="147"/>
-      <c r="AF23" s="147"/>
-      <c r="AG23" s="147"/>
-      <c r="AH23" s="147"/>
-      <c r="AI23" s="148"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="93"/>
-      <c r="AL23" s="94"/>
-      <c r="AM23" s="92"/>
-      <c r="AN23" s="93"/>
-      <c r="AO23" s="116"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="101"/>
+      <c r="AF23" s="101"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="102"/>
+      <c r="AJ23" s="109"/>
+      <c r="AK23" s="110"/>
+      <c r="AL23" s="111"/>
+      <c r="AM23" s="109"/>
+      <c r="AN23" s="110"/>
+      <c r="AO23" s="119"/>
     </row>
     <row r="24" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="140"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="141"/>
-      <c r="W24" s="141"/>
-      <c r="X24" s="142"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="93"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="150"/>
-      <c r="AF24" s="150"/>
-      <c r="AG24" s="150"/>
-      <c r="AH24" s="150"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="93"/>
-      <c r="AL24" s="94"/>
-      <c r="AM24" s="92"/>
-      <c r="AN24" s="93"/>
-      <c r="AO24" s="116"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="104"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="104"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="109"/>
+      <c r="AK24" s="110"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="109"/>
+      <c r="AN24" s="110"/>
+      <c r="AO24" s="119"/>
     </row>
     <row r="25" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="141"/>
-      <c r="X25" s="142"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="150"/>
-      <c r="AF25" s="150"/>
-      <c r="AG25" s="150"/>
-      <c r="AH25" s="150"/>
-      <c r="AI25" s="151"/>
-      <c r="AJ25" s="92"/>
-      <c r="AK25" s="93"/>
-      <c r="AL25" s="94"/>
-      <c r="AM25" s="92"/>
-      <c r="AN25" s="93"/>
-      <c r="AO25" s="116"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="109"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="104"/>
+      <c r="AF25" s="104"/>
+      <c r="AG25" s="104"/>
+      <c r="AH25" s="104"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="109"/>
+      <c r="AK25" s="110"/>
+      <c r="AL25" s="111"/>
+      <c r="AM25" s="109"/>
+      <c r="AN25" s="110"/>
+      <c r="AO25" s="119"/>
     </row>
     <row r="26" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="157"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="145"/>
-      <c r="Y26" s="133"/>
-      <c r="Z26" s="134"/>
-      <c r="AA26" s="134"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="152"/>
-      <c r="AE26" s="153"/>
-      <c r="AF26" s="153"/>
-      <c r="AG26" s="153"/>
-      <c r="AH26" s="153"/>
-      <c r="AI26" s="154"/>
-      <c r="AJ26" s="133"/>
-      <c r="AK26" s="134"/>
-      <c r="AL26" s="135"/>
-      <c r="AM26" s="133"/>
-      <c r="AN26" s="134"/>
-      <c r="AO26" s="136"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="116"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="107"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="115"/>
+      <c r="AK26" s="116"/>
+      <c r="AL26" s="117"/>
+      <c r="AM26" s="115"/>
+      <c r="AN26" s="116"/>
+      <c r="AO26" s="118"/>
     </row>
     <row r="39" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P39" t="s">
@@ -9323,61 +9339,26 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="B22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AI22"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="B23:S23"/>
-    <mergeCell ref="T23:X26"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AI26"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="B24:S24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="B25:S25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="B26:S26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM26:AO26"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AI20"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="AM21:AO21"/>
-    <mergeCell ref="AM22:AO22"/>
-    <mergeCell ref="AM23:AO23"/>
-    <mergeCell ref="AM24:AO24"/>
-    <mergeCell ref="AM25:AO25"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="B12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="B21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AI21"/>
-    <mergeCell ref="B20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="B19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AO19"/>
-    <mergeCell ref="B18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AI18"/>
-    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AI5"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AI3"/>
     <mergeCell ref="B4:S4"/>
     <mergeCell ref="T4:X4"/>
     <mergeCell ref="Y4:AC4"/>
@@ -9394,26 +9375,61 @@
     <mergeCell ref="T8:X8"/>
     <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AI3"/>
-    <mergeCell ref="B11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AI5"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="B19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AO19"/>
+    <mergeCell ref="B18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AI18"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="B12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="B21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AI21"/>
+    <mergeCell ref="B20:S20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM26:AO26"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AI20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AM21:AO21"/>
+    <mergeCell ref="AM22:AO22"/>
+    <mergeCell ref="AM23:AO23"/>
+    <mergeCell ref="AM24:AO24"/>
+    <mergeCell ref="AM25:AO25"/>
+    <mergeCell ref="B23:S23"/>
+    <mergeCell ref="T23:X26"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AI26"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="B24:S24"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="B25:S25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="B26:S26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="B22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AI22"/>
+    <mergeCell ref="AJ22:AL22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD4" r:id="rId1"/>

--- a/peformance/DungNT-knowlegde.xlsx
+++ b/peformance/DungNT-knowlegde.xlsx
@@ -20,12 +20,12 @@
     <sheet name="CASO" sheetId="11" r:id="rId11"/>
     <sheet name="Private" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="529">
   <si>
     <t>Step to investigate what thread is slow or taking too much resource :</t>
   </si>
@@ -1181,21 +1181,6 @@
     <t>administrator/123@123a</t>
   </si>
   <si>
-    <t>1. Back-up server</t>
-  </si>
-  <si>
-    <t>192.81.110.90 5590</t>
-  </si>
-  <si>
-    <t>root / dtk@123a</t>
-  </si>
-  <si>
-    <t>2. Database server</t>
-  </si>
-  <si>
-    <t>192.81.110.77 5589</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -3428,9 +3413,6 @@
     <t>keytool -genkey -alias mydomain -keyalg RSA -keystore keystore.jks -keysize 2048</t>
   </si>
   <si>
-    <t>root / dtk@123a/nUC$&amp;pPS5fG</t>
-  </si>
-  <si>
     <t>nc -v -l 80 &lt; file.ext</t>
   </si>
   <si>
@@ -3548,6 +3530,111 @@
   </si>
   <si>
     <t>find path/to/my/directory/ -depth -name "*owner*" -exec /usr/bin/rename 'stringneedreplace' 'stringreplace' {} \+</t>
+  </si>
+  <si>
+    <t>nUC$&amp;pPS5fG</t>
+  </si>
+  <si>
+    <t>alias ..='cd ..'</t>
+  </si>
+  <si>
+    <t>alias ...='cd ../../../'</t>
+  </si>
+  <si>
+    <t>alias ....='cd ../../../../'</t>
+  </si>
+  <si>
+    <t>alias .....='cd ../../../../'</t>
+  </si>
+  <si>
+    <t>alias .4='cd ../../../../'</t>
+  </si>
+  <si>
+    <t>alias .5='cd ../../../../..'</t>
+  </si>
+  <si>
+    <t>alias cd..='cd ..'</t>
+  </si>
+  <si>
+    <t>alias df='df -H'</t>
+  </si>
+  <si>
+    <t>alias du='du -ch'</t>
+  </si>
+  <si>
+    <t>alias egrep='egrep --color=auto'</t>
+  </si>
+  <si>
+    <t>alias fgrep='fgrep --color=auto'</t>
+  </si>
+  <si>
+    <t>alias grep='grep --color=auto'</t>
+  </si>
+  <si>
+    <t>alias h='history'</t>
+  </si>
+  <si>
+    <t>alias j='jobs -l'</t>
+  </si>
+  <si>
+    <t>alias ll='ls -lah'</t>
+  </si>
+  <si>
+    <t>alias ls='ls --color=auto'</t>
+  </si>
+  <si>
+    <t>alias mkdir='mkdir -pv'</t>
+  </si>
+  <si>
+    <t>alias most='du -hsx * | sort -rh | head -10'</t>
+  </si>
+  <si>
+    <t>alias pscpu='ps auxf | sort -nr -k 3'</t>
+  </si>
+  <si>
+    <t>alias pscpu10='ps auxf | sort -nr -k 3 | head -10'</t>
+  </si>
+  <si>
+    <t>alias psmem='ps auxf | sort -nr -k 4'</t>
+  </si>
+  <si>
+    <t>alias psmem10='ps auxf | sort -nr -k 4 | head -10'</t>
+  </si>
+  <si>
+    <t>alias rar='tar -cvf'</t>
+  </si>
+  <si>
+    <t>alias rmlog='echo -n "" &gt;'</t>
+  </si>
+  <si>
+    <t>alias tf='tail -f '</t>
+  </si>
+  <si>
+    <t>alias unrar='tar -xvf'</t>
+  </si>
+  <si>
+    <t>alias unzip='tar -zxvf'</t>
+  </si>
+  <si>
+    <t>alias usage='du -ck | sort -nr | head'</t>
+  </si>
+  <si>
+    <t>alias zip='tar -zcvf'</t>
+  </si>
+  <si>
+    <t>Check high cpu</t>
+  </si>
+  <si>
+    <t>1.jstack &lt;process id of Java process&gt;</t>
+  </si>
+  <si>
+    <t>2.ps −C java −L −o pcpu,cpu,nice,state,cputime,pid,tid | sort</t>
+  </si>
+  <si>
+    <t>4.find in jstack result where is that hex value ==&gt; this is thread of the Java process is responsible for the high CPU utilization</t>
+  </si>
+  <si>
+    <t>3.find most cpu consume thread id ==&gt; convert from decimal to hex ( http://www.binaryhexconverter.com/decimal-to-hex-converter)</t>
   </si>
 </sst>
 </file>
@@ -3880,7 +3967,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3914,6 +4001,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4386,7 +4479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4586,177 +4679,42 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4769,12 +4727,148 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5128,7 +5222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -6203,12 +6297,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -6218,12 +6312,12 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6236,52 +6330,27 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B15"/>
+  <dimension ref="B14:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>466</v>
-      </c>
-    </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>453</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -6305,18 +6374,18 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="72" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="71" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D2" s="3"/>
       <c r="F2" s="3"/>
@@ -6324,50 +6393,50 @@
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="70" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="70" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="70" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="70" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="70" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -6575,10 +6644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D345"/>
+  <dimension ref="A1:D407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A407" sqref="A407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6725,17 +6794,17 @@
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="45" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="46" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.35">
@@ -6743,17 +6812,17 @@
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="46" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A64" s="48" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.3">
@@ -6779,7 +6848,7 @@
     </row>
     <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="54" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -6787,7 +6856,7 @@
     </row>
     <row r="80" spans="1:1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
@@ -6795,7 +6864,7 @@
     </row>
     <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.3">
       <c r="A82" s="56" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
@@ -6803,7 +6872,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="58" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -6811,12 +6880,12 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="59" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
@@ -6824,7 +6893,7 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="61" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
@@ -6832,7 +6901,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="58" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
@@ -6840,7 +6909,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="59" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
@@ -6848,7 +6917,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="58" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
@@ -6856,7 +6925,7 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="59" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
@@ -6864,7 +6933,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="58" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
@@ -6872,7 +6941,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="58" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
@@ -6880,12 +6949,12 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="59" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="60" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
@@ -6893,7 +6962,7 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="58" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -6901,7 +6970,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="59" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
@@ -6909,7 +6978,7 @@
     </row>
     <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A110" s="54" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
@@ -6917,7 +6986,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="58" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -6925,48 +6994,48 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="59" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="60" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="57"/>
       <c r="D116" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="58" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="57"/>
       <c r="C118" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="59" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="57"/>
       <c r="C120" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="58" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -6974,18 +7043,18 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="59" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="60" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -6993,29 +7062,29 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="58" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
       <c r="C127" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="59" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C128" s="69" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="60" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -7023,7 +7092,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="58" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -7031,12 +7100,12 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="59" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="60" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -7044,7 +7113,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="58" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -7052,7 +7121,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="58" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -7060,7 +7129,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="59" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -7068,7 +7137,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="62" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -7076,7 +7145,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="59" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
@@ -7084,7 +7153,7 @@
     </row>
     <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A146" s="54" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
@@ -7092,7 +7161,7 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="58" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
@@ -7100,7 +7169,7 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="59" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
@@ -7108,7 +7177,7 @@
     </row>
     <row r="152" spans="1:1" ht="30" x14ac:dyDescent="0.3">
       <c r="A152" s="61" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
@@ -7116,7 +7185,7 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="58" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
@@ -7124,17 +7193,17 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="59" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="63" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="64" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
@@ -7142,7 +7211,7 @@
     </row>
     <row r="160" spans="1:1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A160" s="58" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
@@ -7150,7 +7219,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="58" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
@@ -7158,7 +7227,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="59" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
@@ -7166,7 +7235,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="58" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
@@ -7174,7 +7243,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="58" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
@@ -7182,7 +7251,7 @@
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="59" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
@@ -7190,7 +7259,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="58" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
@@ -7198,7 +7267,7 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="59" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
@@ -7206,7 +7275,7 @@
     </row>
     <row r="176" spans="1:1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A176" s="58" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
@@ -7214,7 +7283,7 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="59" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
@@ -7222,7 +7291,7 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="58" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
@@ -7230,17 +7299,17 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="59" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="59" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="60" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
@@ -7248,7 +7317,7 @@
     </row>
     <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A186" s="54" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
@@ -7256,7 +7325,7 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="58" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
@@ -7264,7 +7333,7 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="59" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -7272,7 +7341,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="58" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
@@ -7280,7 +7349,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="59" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
@@ -7288,7 +7357,7 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="58" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
@@ -7296,17 +7365,17 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="65" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="59" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="60" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
@@ -7314,7 +7383,7 @@
     </row>
     <row r="202" spans="1:1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A202" s="58" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
@@ -7322,17 +7391,17 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="66" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="59" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="60" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
@@ -7340,7 +7409,7 @@
     </row>
     <row r="208" spans="1:1" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A208" s="58" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
@@ -7348,12 +7417,12 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="59" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="60" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
@@ -7361,7 +7430,7 @@
     </row>
     <row r="213" spans="1:1" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A213" s="58" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
@@ -7369,7 +7438,7 @@
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="58" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
@@ -7377,27 +7446,27 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="59" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="59" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="59" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="59" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="60" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
@@ -7405,7 +7474,7 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="58" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
@@ -7413,7 +7482,7 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="62" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
@@ -7421,12 +7490,12 @@
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="59" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="60" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
@@ -7434,7 +7503,7 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="58" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
@@ -7442,22 +7511,22 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="59" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="63" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="63" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="60" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
@@ -7465,7 +7534,7 @@
     </row>
     <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A237" s="54" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
@@ -7473,7 +7542,7 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="58" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
@@ -7481,7 +7550,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="59" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
@@ -7489,7 +7558,7 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="58" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
@@ -7497,7 +7566,7 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="59" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
@@ -7505,162 +7574,162 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A258" s="52" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A270" s="68" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A304" s="52" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="29" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="73" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A322" s="76" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.3">
@@ -7671,12 +7740,12 @@
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="78" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="18" x14ac:dyDescent="0.3">
@@ -7684,22 +7753,22 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="73" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="77" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="77" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
@@ -7707,32 +7776,202 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="158" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="52" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -8277,338 +8516,338 @@
   <sheetData>
     <row r="1" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="153" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="153" t="s">
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="156"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="110"/>
     </row>
     <row r="3" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="97" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="157" t="s">
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="129"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="112"/>
     </row>
     <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="97" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="111"/>
-      <c r="AD4" s="143" t="s">
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="145"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="115"/>
     </row>
     <row r="5" spans="2:35" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="97" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="146" t="s">
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="148"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="97"/>
     </row>
     <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="97" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="146" t="s">
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="147"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="148"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="97"/>
     </row>
     <row r="7" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="97" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="146" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="AE7" s="147"/>
-      <c r="AF7" s="147"/>
-      <c r="AG7" s="147"/>
-      <c r="AH7" s="147"/>
-      <c r="AI7" s="148"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="97"/>
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="97" t="s">
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="133" t="s">
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="134"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="149"/>
+      <c r="AE8" s="118"/>
+      <c r="AF8" s="118"/>
+      <c r="AG8" s="118"/>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="119"/>
     </row>
     <row r="9" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="97" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="119"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="116"/>
     </row>
     <row r="10" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
@@ -8682,266 +8921,266 @@
       <c r="AF11" s="83"/>
       <c r="AG11" s="83"/>
       <c r="AH11" s="83"/>
-      <c r="AI11" s="120"/>
+      <c r="AI11" s="85"/>
     </row>
     <row r="12" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="97" t="s">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="97" t="s">
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="129"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="112"/>
     </row>
     <row r="13" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="115"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="116"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="121" t="s">
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="123"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="127"/>
     </row>
     <row r="17" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="130"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="130" t="s">
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="108"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="139"/>
-      <c r="AJ18" s="130"/>
-      <c r="AK18" s="131"/>
-      <c r="AL18" s="139"/>
-      <c r="AM18" s="130"/>
-      <c r="AN18" s="131"/>
-      <c r="AO18" s="132"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
+      <c r="AJ18" s="107"/>
+      <c r="AK18" s="108"/>
+      <c r="AL18" s="109"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="108"/>
+      <c r="AO18" s="120"/>
     </row>
     <row r="19" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="133" t="s">
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="AE19" s="134"/>
-      <c r="AF19" s="134"/>
-      <c r="AG19" s="134"/>
-      <c r="AH19" s="134"/>
-      <c r="AI19" s="135"/>
-      <c r="AJ19" s="109"/>
-      <c r="AK19" s="110"/>
-      <c r="AL19" s="111"/>
-      <c r="AM19" s="109"/>
-      <c r="AN19" s="110"/>
-      <c r="AO19" s="119"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="93"/>
+      <c r="AO19" s="116"/>
     </row>
     <row r="20" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="125"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="111"/>
-      <c r="AJ20" s="109"/>
-      <c r="AK20" s="110"/>
-      <c r="AL20" s="111"/>
-      <c r="AM20" s="109"/>
-      <c r="AN20" s="110"/>
-      <c r="AO20" s="119"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="116"/>
     </row>
     <row r="21" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="125"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="111"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="111"/>
-      <c r="AJ21" s="109"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="111"/>
-      <c r="AM21" s="109"/>
-      <c r="AN21" s="110"/>
-      <c r="AO21" s="119"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="93"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="92"/>
+      <c r="AN21" s="93"/>
+      <c r="AO21" s="116"/>
     </row>
     <row r="22" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="79" t="s">
@@ -8985,187 +9224,187 @@
       <c r="AL22" s="84"/>
       <c r="AM22" s="82"/>
       <c r="AN22" s="83"/>
-      <c r="AO22" s="120"/>
+      <c r="AO22" s="85"/>
     </row>
     <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="88" t="s">
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="97" t="s">
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="138"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="100"/>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="102"/>
-      <c r="AJ23" s="109"/>
-      <c r="AK23" s="110"/>
-      <c r="AL23" s="111"/>
-      <c r="AM23" s="109"/>
-      <c r="AN23" s="110"/>
-      <c r="AO23" s="119"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="146"/>
+      <c r="AE23" s="147"/>
+      <c r="AF23" s="147"/>
+      <c r="AG23" s="147"/>
+      <c r="AH23" s="147"/>
+      <c r="AI23" s="148"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="93"/>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="92"/>
+      <c r="AN23" s="93"/>
+      <c r="AO23" s="116"/>
     </row>
     <row r="24" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="93"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="142"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="104"/>
-      <c r="AG24" s="104"/>
-      <c r="AH24" s="104"/>
-      <c r="AI24" s="105"/>
-      <c r="AJ24" s="109"/>
-      <c r="AK24" s="110"/>
-      <c r="AL24" s="111"/>
-      <c r="AM24" s="109"/>
-      <c r="AN24" s="110"/>
-      <c r="AO24" s="119"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="150"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="150"/>
+      <c r="AH24" s="150"/>
+      <c r="AI24" s="151"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="92"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="116"/>
     </row>
     <row r="25" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="104"/>
-      <c r="AF25" s="104"/>
-      <c r="AG25" s="104"/>
-      <c r="AH25" s="104"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="109"/>
-      <c r="AK25" s="110"/>
-      <c r="AL25" s="111"/>
-      <c r="AM25" s="109"/>
-      <c r="AN25" s="110"/>
-      <c r="AO25" s="119"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="150"/>
+      <c r="AF25" s="150"/>
+      <c r="AG25" s="150"/>
+      <c r="AH25" s="150"/>
+      <c r="AI25" s="151"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="93"/>
+      <c r="AL25" s="94"/>
+      <c r="AM25" s="92"/>
+      <c r="AN25" s="93"/>
+      <c r="AO25" s="116"/>
     </row>
     <row r="26" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="115"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="116"/>
-      <c r="AB26" s="116"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
-      <c r="AH26" s="107"/>
-      <c r="AI26" s="108"/>
-      <c r="AJ26" s="115"/>
-      <c r="AK26" s="116"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="115"/>
-      <c r="AN26" s="116"/>
-      <c r="AO26" s="118"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="153"/>
+      <c r="AF26" s="153"/>
+      <c r="AG26" s="153"/>
+      <c r="AH26" s="153"/>
+      <c r="AI26" s="154"/>
+      <c r="AJ26" s="133"/>
+      <c r="AK26" s="134"/>
+      <c r="AL26" s="135"/>
+      <c r="AM26" s="133"/>
+      <c r="AN26" s="134"/>
+      <c r="AO26" s="136"/>
     </row>
     <row r="39" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P39" t="s">
@@ -9339,26 +9578,61 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="B11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AI5"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AI6"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AI3"/>
+    <mergeCell ref="B22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AI22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="B23:S23"/>
+    <mergeCell ref="T23:X26"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AI26"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="B24:S24"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="B25:S25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="B26:S26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM26:AO26"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AI20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AM21:AO21"/>
+    <mergeCell ref="AM22:AO22"/>
+    <mergeCell ref="AM23:AO23"/>
+    <mergeCell ref="AM24:AO24"/>
+    <mergeCell ref="AM25:AO25"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="B12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="B21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AI21"/>
+    <mergeCell ref="B20:S20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="B19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AO19"/>
+    <mergeCell ref="B18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AI18"/>
+    <mergeCell ref="AJ18:AL18"/>
     <mergeCell ref="B4:S4"/>
     <mergeCell ref="T4:X4"/>
     <mergeCell ref="Y4:AC4"/>
@@ -9375,61 +9649,26 @@
     <mergeCell ref="T8:X8"/>
     <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="B19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AO19"/>
-    <mergeCell ref="B18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AI18"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="B12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="B21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AI21"/>
-    <mergeCell ref="B20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM26:AO26"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AI20"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="AM21:AO21"/>
-    <mergeCell ref="AM22:AO22"/>
-    <mergeCell ref="AM23:AO23"/>
-    <mergeCell ref="AM24:AO24"/>
-    <mergeCell ref="AM25:AO25"/>
-    <mergeCell ref="B23:S23"/>
-    <mergeCell ref="T23:X26"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AI26"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="B24:S24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="B25:S25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="B26:S26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="B22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AI22"/>
-    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AI3"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AI5"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AI6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD4" r:id="rId1"/>
